--- a/商品购物车设计.xlsx
+++ b/商品购物车设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <r>
       <t xml:space="preserve">private </t>
@@ -1612,45 +1612,6 @@
   </si>
   <si>
     <t>图片地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column</t>
-  </si>
-  <si>
-    <t>页面管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sku_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3283,28 +3244,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D50:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="7" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="14.625" customWidth="1"/>
+    <col min="21" max="21" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>71</v>
-      </c>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D50" s="5"/>
+      <c r="E50" s="4"/>
       <c r="G50" s="5" t="s">
         <v>20</v>
       </c>
@@ -3337,13 +3294,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
-      </c>
+    <row r="52" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="7"/>
       <c r="G52" s="1" t="s">
         <v>19</v>
       </c>
@@ -3357,13 +3309,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s">
-        <v>75</v>
-      </c>
+    <row r="53" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="7"/>
       <c r="G53" s="1" t="s">
         <v>22</v>
       </c>
@@ -3380,13 +3327,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
-        <v>76</v>
-      </c>
+    <row r="54" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="7"/>
       <c r="G54" s="2" t="s">
         <v>1</v>
       </c>
@@ -3400,13 +3342,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" t="s">
-        <v>77</v>
-      </c>
+    <row r="55" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="7"/>
       <c r="G55" s="2" t="s">
         <v>2</v>
       </c>
@@ -3420,7 +3357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G56" s="2" t="s">
         <v>3</v>
       </c>
@@ -3434,7 +3371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3445,7 +3382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="2" t="s">
         <v>5</v>
       </c>
@@ -3456,7 +3393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
@@ -3467,7 +3404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="6"/>
       <c r="G60" s="2" t="s">
         <v>7</v>
@@ -3476,7 +3413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="2" t="s">
         <v>8</v>
       </c>
@@ -3487,7 +3424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G62" s="2" t="s">
         <v>9</v>
       </c>
@@ -3495,7 +3432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G63" s="2" t="s">
         <v>10</v>
       </c>
@@ -3503,10 +3440,10 @@
         <v>43</v>
       </c>
       <c r="P63" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="64" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G64" s="2" t="s">
         <v>11</v>
       </c>
@@ -3517,7 +3454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G65" s="2" t="s">
         <v>12</v>
       </c>
@@ -3528,7 +3465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G66" s="2" t="s">
         <v>13</v>
       </c>
@@ -3542,7 +3479,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G67" s="2" t="s">
         <v>14</v>
       </c>
@@ -3553,7 +3490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G68" s="2" t="s">
         <v>15</v>
       </c>
@@ -3564,7 +3501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G69" s="2" t="s">
         <v>16</v>
       </c>
@@ -3575,7 +3512,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="2" t="s">
         <v>17</v>
       </c>
@@ -3583,7 +3520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="7:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G71" s="2" t="s">
         <v>18</v>
       </c>
@@ -3594,12 +3531,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="7:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:16" x14ac:dyDescent="0.2">
       <c r="L72" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="7:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:16" x14ac:dyDescent="0.2">
       <c r="L73" s="2" t="s">
         <v>51</v>
       </c>
